--- a/data/trans_orig/P16A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>38123</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28284</v>
+        <v>27867</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51647</v>
+        <v>51957</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07716174966863872</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05724719871247649</v>
+        <v>0.05640434520387191</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1045350459619107</v>
+        <v>0.1051634504641943</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -765,19 +765,19 @@
         <v>81198</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65764</v>
+        <v>66527</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98721</v>
+        <v>98382</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1736902630303678</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1406739811447095</v>
+        <v>0.1423061909109158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2111731428987084</v>
+        <v>0.210448160004406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>123</v>
@@ -786,19 +786,19 @@
         <v>119321</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>98391</v>
+        <v>100295</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139522</v>
+        <v>141577</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1240921102170766</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1023254686581451</v>
+        <v>0.1043052697308469</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1451008059675838</v>
+        <v>0.1472381098145062</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>455941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442417</v>
+        <v>442107</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>465780</v>
+        <v>466197</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9228382503313612</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8954649540380893</v>
+        <v>0.8948365495358064</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9427528012875235</v>
+        <v>0.9435956547961283</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>404</v>
@@ -836,19 +836,19 @@
         <v>386291</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>368768</v>
+        <v>369107</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>401725</v>
+        <v>400962</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8263097369696322</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7888268571012916</v>
+        <v>0.7895518399955933</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8593260188552905</v>
+        <v>0.857693809089084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>865</v>
@@ -857,19 +857,19 @@
         <v>842232</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>822031</v>
+        <v>819976</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>863162</v>
+        <v>861258</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8759078897829234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8548991940324162</v>
+        <v>0.8527618901854939</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8976745313418549</v>
+        <v>0.8956947302691531</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>64294</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51401</v>
+        <v>50429</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81262</v>
+        <v>80459</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08741639743273744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06988671072682823</v>
+        <v>0.06856472101252838</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.110486437481185</v>
+        <v>0.1093951317122868</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -982,19 +982,19 @@
         <v>92913</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76915</v>
+        <v>76835</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113643</v>
+        <v>113324</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1485426481622475</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.122967272986729</v>
+        <v>0.1228386053691907</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1816857671043643</v>
+        <v>0.1811758889306605</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>153</v>
@@ -1003,19 +1003,19 @@
         <v>157206</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>134594</v>
+        <v>137026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>182888</v>
+        <v>182491</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1155094067142168</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09889482581649869</v>
+        <v>0.1006816050621065</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.134379283614167</v>
+        <v>0.1340876558311033</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>671195</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>654227</v>
+        <v>655030</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>684088</v>
+        <v>685060</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9125836025672626</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8895135625188147</v>
+        <v>0.8906048682877132</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9301132892731718</v>
+        <v>0.9314352789874717</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>503</v>
@@ -1053,19 +1053,19 @@
         <v>532581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>511851</v>
+        <v>512170</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>548579</v>
+        <v>548659</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8514573518377525</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8183142328956357</v>
+        <v>0.8188241110693395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.877032727013271</v>
+        <v>0.8771613946308097</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1141</v>
@@ -1074,19 +1074,19 @@
         <v>1203776</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1178094</v>
+        <v>1178491</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1226388</v>
+        <v>1223956</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8844905932857833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8656207163858329</v>
+        <v>0.8659123441688967</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9011051741835013</v>
+        <v>0.8993183949378935</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>86513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69776</v>
+        <v>68194</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103989</v>
+        <v>103742</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1356748962166341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1094272857643842</v>
+        <v>0.1069464358462746</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1630814377976968</v>
+        <v>0.1626938001029198</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -1199,19 +1199,19 @@
         <v>141949</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>119838</v>
+        <v>121092</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>163732</v>
+        <v>164131</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2057989083366877</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1737427153768261</v>
+        <v>0.1755611571896303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2373806433330314</v>
+        <v>0.2379599730301382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -1220,19 +1220,19 @@
         <v>228462</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>200610</v>
+        <v>202866</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>255960</v>
+        <v>260174</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1721129444174937</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1511308654939793</v>
+        <v>0.1528300253887899</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1928287407987466</v>
+        <v>0.1960037969179377</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>551136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>533660</v>
+        <v>533907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>567873</v>
+        <v>569455</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8643251037833659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8369185622023033</v>
+        <v>0.8373061998970803</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8905727142356161</v>
+        <v>0.8930535641537257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>522</v>
@@ -1270,19 +1270,19 @@
         <v>547795</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>526012</v>
+        <v>525613</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>569906</v>
+        <v>568652</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7942010916633123</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7626193566669686</v>
+        <v>0.7620400269698625</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8262572846231738</v>
+        <v>0.8244388428103697</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1046</v>
@@ -1291,19 +1291,19 @@
         <v>1098932</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1071434</v>
+        <v>1067220</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1126784</v>
+        <v>1124528</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8278870555825063</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8071712592012535</v>
+        <v>0.8039962030820623</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.848869134506021</v>
+        <v>0.8471699746112099</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>77338</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61096</v>
+        <v>61180</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95284</v>
+        <v>94377</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1489714523471044</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1176859142346474</v>
+        <v>0.1178480321731119</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1835399547584283</v>
+        <v>0.1817918431714343</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -1416,19 +1416,19 @@
         <v>123284</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105856</v>
+        <v>105839</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144341</v>
+        <v>143206</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2390885936207724</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2052896779476583</v>
+        <v>0.2052563217559571</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2799244912249567</v>
+        <v>0.2777236177563666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>193</v>
@@ -1437,19 +1437,19 @@
         <v>200622</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174455</v>
+        <v>174573</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>227256</v>
+        <v>225147</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1938773999246375</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1685895792995957</v>
+        <v>0.1687037295211679</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2196157116941805</v>
+        <v>0.2175778085671837</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>441809</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>423863</v>
+        <v>424770</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>458051</v>
+        <v>457967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8510285476528956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8164600452415717</v>
+        <v>0.8182081568285658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8823140857653525</v>
+        <v>0.8821519678268881</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>383</v>
@@ -1487,19 +1487,19 @@
         <v>392358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>371301</v>
+        <v>372436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>409786</v>
+        <v>409803</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7609114063792276</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7200755087750439</v>
+        <v>0.7222763822436334</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7947103220523417</v>
+        <v>0.7947436782440429</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>793</v>
@@ -1508,19 +1508,19 @@
         <v>834167</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>807533</v>
+        <v>809642</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>860334</v>
+        <v>860216</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8061226000753625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7803842883058199</v>
+        <v>0.7824221914328162</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8314104207004045</v>
+        <v>0.8312962704788321</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>85620</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69865</v>
+        <v>69346</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102726</v>
+        <v>102481</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2214051943704315</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1806660544538566</v>
+        <v>0.1793226117568666</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2656408222727606</v>
+        <v>0.2650067236624113</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>114</v>
@@ -1633,19 +1633,19 @@
         <v>117002</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96968</v>
+        <v>98699</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>135462</v>
+        <v>135524</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2896186885192998</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2400286662745726</v>
+        <v>0.2443135557154422</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3353135106283636</v>
+        <v>0.3354677733891852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>200</v>
@@ -1654,19 +1654,19 @@
         <v>202621</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>180308</v>
+        <v>178995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229448</v>
+        <v>228450</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.256257140908674</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2280365377397132</v>
+        <v>0.2263771294171438</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2901847958512961</v>
+        <v>0.2889228220233364</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>301090</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>283984</v>
+        <v>284229</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>316845</v>
+        <v>317364</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7785948056295685</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7343591777272394</v>
+        <v>0.7349932763375888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8193339455461435</v>
+        <v>0.8206773882431334</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>282</v>
@@ -1704,19 +1704,19 @@
         <v>286984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>268524</v>
+        <v>268462</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>307018</v>
+        <v>305287</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7103813114807002</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6646864893716364</v>
+        <v>0.6645322266108145</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7599713337254274</v>
+        <v>0.7556864442845573</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>588</v>
@@ -1725,19 +1725,19 @@
         <v>588075</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>561248</v>
+        <v>562246</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>610388</v>
+        <v>611701</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.743742859091326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.709815204148704</v>
+        <v>0.7110771779766635</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7719634622602868</v>
+        <v>0.7736228705828562</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>48568</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37853</v>
+        <v>37116</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62063</v>
+        <v>62693</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1659962137075046</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1293768589999987</v>
+        <v>0.1268552032664491</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2121219969196284</v>
+        <v>0.2142743786176236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -1850,19 +1850,19 @@
         <v>110958</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>94998</v>
+        <v>96605</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>128455</v>
+        <v>128190</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.323553638135716</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2770143955017187</v>
+        <v>0.2817010181460261</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3745751321442555</v>
+        <v>0.3738033403679237</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -1871,19 +1871,19 @@
         <v>159525</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>138118</v>
+        <v>138899</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>181562</v>
+        <v>180612</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2510164377123648</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2173310037631701</v>
+        <v>0.2185612529361877</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2856915963389797</v>
+        <v>0.284197499542914</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>244015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230520</v>
+        <v>229890</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>254730</v>
+        <v>255467</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8340037862924955</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7878780030803711</v>
+        <v>0.7857256213823762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8706231410000012</v>
+        <v>0.8731447967335506</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -1921,19 +1921,19 @@
         <v>231976</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>214479</v>
+        <v>214744</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>247936</v>
+        <v>246329</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.676446361864284</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.625424867855744</v>
+        <v>0.6261966596320764</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7229856044982812</v>
+        <v>0.7182989818539739</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>502</v>
@@ -1942,19 +1942,19 @@
         <v>475992</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>453955</v>
+        <v>454905</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>497399</v>
+        <v>496618</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7489835622876352</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.71430840366102</v>
+        <v>0.7158025004570858</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7826689962368297</v>
+        <v>0.7814387470638122</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>55339</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44838</v>
+        <v>43004</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69194</v>
+        <v>67569</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2636654542942394</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2136352365651508</v>
+        <v>0.2048938841509299</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3296789169853419</v>
+        <v>0.3219357718219563</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>121</v>
@@ -2067,19 +2067,19 @@
         <v>139314</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>119438</v>
+        <v>120701</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>158601</v>
+        <v>157521</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4172221683017676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3576980969171283</v>
+        <v>0.3614811600341949</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4749854118408639</v>
+        <v>0.4717503625740377</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>182</v>
@@ -2088,19 +2088,19 @@
         <v>194653</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>171601</v>
+        <v>171900</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>220013</v>
+        <v>220046</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3579550143746238</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3155649180105858</v>
+        <v>0.3161136168014032</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4045907120732226</v>
+        <v>0.404651253932685</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>154544</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>140689</v>
+        <v>142314</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>165045</v>
+        <v>166879</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7363345457057606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6703210830146582</v>
+        <v>0.6780642281780441</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7863647634348493</v>
+        <v>0.7951061158490713</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>169</v>
@@ -2138,19 +2138,19 @@
         <v>194594</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>175307</v>
+        <v>176387</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>214470</v>
+        <v>213207</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5827778316982325</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5250145881591362</v>
+        <v>0.5282496374259623</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6423019030828717</v>
+        <v>0.6385188399658052</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>328</v>
@@ -2159,19 +2159,19 @@
         <v>349138</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>323778</v>
+        <v>323745</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>372190</v>
+        <v>371891</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6420449856253762</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5954092879267774</v>
+        <v>0.5953487460673149</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6844350819894142</v>
+        <v>0.6838863831985967</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>455794</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>418733</v>
+        <v>421899</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>497494</v>
+        <v>499310</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1391513980117829</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1278369250593171</v>
+        <v>0.1288035802922524</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1518821427036345</v>
+        <v>0.1524366845382654</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>783</v>
@@ -2284,19 +2284,19 @@
         <v>806617</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>753617</v>
+        <v>760716</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>858102</v>
+        <v>856769</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2387007226089774</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2230165773152083</v>
+        <v>0.2251172689902149</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2539365865744282</v>
+        <v>0.2535422224601881</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1247</v>
@@ -2305,19 +2305,19 @@
         <v>1262411</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1199500</v>
+        <v>1204242</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1326754</v>
+        <v>1335304</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1897014865769265</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1802478810361731</v>
+        <v>0.1809605769659962</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1993702765569464</v>
+        <v>0.2006551738634096</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2819731</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2778031</v>
+        <v>2776215</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2856792</v>
+        <v>2853626</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8608486019882171</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8481178572963655</v>
+        <v>0.8475633154617346</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8721630749406829</v>
+        <v>0.8711964197077475</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2514</v>
@@ -2355,19 +2355,19 @@
         <v>2572580</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2521095</v>
+        <v>2522428</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2625580</v>
+        <v>2618481</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7612992773910227</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7460634134255718</v>
+        <v>0.746457777539812</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7769834226847919</v>
+        <v>0.7748827310097853</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5263</v>
@@ -2376,19 +2376,19 @@
         <v>5392311</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5327968</v>
+        <v>5319418</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5455222</v>
+        <v>5450480</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8102985134230735</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8006297234430536</v>
+        <v>0.7993448261365904</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8197521189638269</v>
+        <v>0.8190394230340039</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>54142</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40124</v>
+        <v>40546</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69367</v>
+        <v>69697</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1194907907485598</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08855419024021012</v>
+        <v>0.08948428499768175</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1530920780730389</v>
+        <v>0.1538218123416106</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -2744,19 +2744,19 @@
         <v>96596</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>79739</v>
+        <v>80339</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115569</v>
+        <v>116482</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2249880026275668</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1857246239942392</v>
+        <v>0.1871217397545435</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2691795954433634</v>
+        <v>0.2713058688571208</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -2765,19 +2765,19 @@
         <v>150738</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>128344</v>
+        <v>128908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>173691</v>
+        <v>174356</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1708187672678951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.145441719651804</v>
+        <v>0.1460807712182578</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1968291246794035</v>
+        <v>0.1975830451342168</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>398963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>383738</v>
+        <v>383408</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>412981</v>
+        <v>412559</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8805092092514402</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8469079219269612</v>
+        <v>0.8461781876583893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9114458097597897</v>
+        <v>0.9105157150023182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>327</v>
@@ -2815,19 +2815,19 @@
         <v>332743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>313770</v>
+        <v>312857</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>349600</v>
+        <v>349000</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7750119973724332</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7308204045566365</v>
+        <v>0.7286941311428793</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8142753760057608</v>
+        <v>0.8128782602454566</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>722</v>
@@ -2836,19 +2836,19 @@
         <v>731707</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>708754</v>
+        <v>708089</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>754101</v>
+        <v>753537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8291812327321049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8031708753205965</v>
+        <v>0.8024169548657832</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.854558280348196</v>
+        <v>0.8539192287817422</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>101189</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>83567</v>
+        <v>83752</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>120342</v>
+        <v>123994</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1474549076863959</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1217760611025644</v>
+        <v>0.1220451793972485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1753650489797858</v>
+        <v>0.1806863376646616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>137</v>
@@ -2961,19 +2961,19 @@
         <v>148860</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>127951</v>
+        <v>129145</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>173462</v>
+        <v>172896</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2443483152856501</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2100266296093055</v>
+        <v>0.2119858233635264</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2847306467226906</v>
+        <v>0.283801136854719</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>235</v>
@@ -2982,19 +2982,19 @@
         <v>250049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>221106</v>
+        <v>219228</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>278868</v>
+        <v>278748</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1930211044217232</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1706789231007595</v>
+        <v>0.1692287353653586</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2152671397678449</v>
+        <v>0.2151744278311625</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>585049</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>565896</v>
+        <v>562244</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>602671</v>
+        <v>602486</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8525450923136041</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8246349510202141</v>
+        <v>0.8193136623353382</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8782239388974356</v>
+        <v>0.8779548206027513</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>433</v>
@@ -3032,19 +3032,19 @@
         <v>460354</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>435752</v>
+        <v>436318</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>481263</v>
+        <v>480069</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.75565168471435</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7152693532773096</v>
+        <v>0.716198863145281</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7899733703906947</v>
+        <v>0.7880141766364737</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1001</v>
@@ -3053,19 +3053,19 @@
         <v>1045402</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1016583</v>
+        <v>1016703</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1074345</v>
+        <v>1076223</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8069788955782768</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7847328602321553</v>
+        <v>0.7848255721688375</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8293210768992405</v>
+        <v>0.8307712646346409</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>99277</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81071</v>
+        <v>80716</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119466</v>
+        <v>121520</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1459839030196346</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.119211857331084</v>
+        <v>0.1186899649418089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1756719799404357</v>
+        <v>0.1786913540201659</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>204</v>
@@ -3178,19 +3178,19 @@
         <v>217722</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>194592</v>
+        <v>194325</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>245580</v>
+        <v>244070</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3072400190781768</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2745998103519023</v>
+        <v>0.2742237926298173</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3465531572474146</v>
+        <v>0.3444221181538331</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>300</v>
@@ -3199,19 +3199,19 @@
         <v>316999</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>286685</v>
+        <v>284249</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>350504</v>
+        <v>351386</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2282715436880332</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2064428549610345</v>
+        <v>0.2046885972805088</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2523990605512738</v>
+        <v>0.2530339304360361</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>580777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>560588</v>
+        <v>558534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>598983</v>
+        <v>599338</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8540160969803654</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8243280200595643</v>
+        <v>0.8213086459798342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.880788142668916</v>
+        <v>0.8813100350581914</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>461</v>
@@ -3249,19 +3249,19 @@
         <v>490915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>463057</v>
+        <v>464567</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>514045</v>
+        <v>514312</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6927599809218232</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6534468427525852</v>
+        <v>0.6555778818461668</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7254001896480977</v>
+        <v>0.7257762073701826</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1014</v>
@@ -3270,19 +3270,19 @@
         <v>1071692</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1038187</v>
+        <v>1037305</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1102006</v>
+        <v>1104442</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7717284563119668</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7476009394487262</v>
+        <v>0.7469660695639638</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7935571450389655</v>
+        <v>0.7953114027194912</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>101619</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83692</v>
+        <v>85929</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121608</v>
+        <v>122488</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1653375000411375</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1361692987961459</v>
+        <v>0.1398089547067282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1978592207065581</v>
+        <v>0.1992921710779225</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>173</v>
@@ -3395,19 +3395,19 @@
         <v>196048</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>171690</v>
+        <v>172655</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>220173</v>
+        <v>221330</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3192585974436069</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2795920298705979</v>
+        <v>0.281163293710701</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.358546225610427</v>
+        <v>0.3604295810121524</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>268</v>
@@ -3416,19 +3416,19 @@
         <v>297667</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>266625</v>
+        <v>268217</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>330198</v>
+        <v>329005</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.242263966847988</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2169995700318152</v>
+        <v>0.2182954348225731</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2687401631265637</v>
+        <v>0.2677688068444538</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>512998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493009</v>
+        <v>492129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>530925</v>
+        <v>528688</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8346624999588624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.802140779293442</v>
+        <v>0.8007078289220777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8638307012038542</v>
+        <v>0.8601910452932719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>364</v>
@@ -3466,19 +3466,19 @@
         <v>418024</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>393899</v>
+        <v>392742</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>442382</v>
+        <v>441417</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6807414025563931</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6414537743895724</v>
+        <v>0.6395704189878472</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7204079701294022</v>
+        <v>0.7188367062892989</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>817</v>
@@ -3487,19 +3487,19 @@
         <v>931022</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>898491</v>
+        <v>899684</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>962064</v>
+        <v>960472</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.757736033152012</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7312598368734365</v>
+        <v>0.7322311931555463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7830004299681851</v>
+        <v>0.7817045651774268</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>94547</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79385</v>
+        <v>77402</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116041</v>
+        <v>114551</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2207260463329756</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1853298271683502</v>
+        <v>0.1807005996374379</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2709056871919756</v>
+        <v>0.2674265105227026</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -3612,19 +3612,19 @@
         <v>161843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141735</v>
+        <v>139578</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>181727</v>
+        <v>184253</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3614173483441094</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3165140333287076</v>
+        <v>0.3116978064096349</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4058210308238405</v>
+        <v>0.4114624802438895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -3633,19 +3633,19 @@
         <v>256389</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>227595</v>
+        <v>228858</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>284534</v>
+        <v>282638</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2926338487100565</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2597685090852182</v>
+        <v>0.2612104872735491</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3247566585259568</v>
+        <v>0.3225932718854922</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>333797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>312303</v>
+        <v>313793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>348959</v>
+        <v>350942</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7792739536670243</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7290943128080243</v>
+        <v>0.7325734894772974</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8146701728316498</v>
+        <v>0.819299400362562</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>258</v>
@@ -3683,19 +3683,19 @@
         <v>285957</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>266073</v>
+        <v>263547</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>306065</v>
+        <v>308222</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6385826516558906</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5941789691761595</v>
+        <v>0.5885375197561105</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6834859666712926</v>
+        <v>0.688302193590365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>563</v>
@@ -3704,19 +3704,19 @@
         <v>619755</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>591610</v>
+        <v>593506</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>648549</v>
+        <v>647286</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7073661512899435</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6752433414740432</v>
+        <v>0.6774067281145078</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7402314909147819</v>
+        <v>0.738789512726451</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>82709</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66977</v>
+        <v>67707</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>101843</v>
+        <v>99453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2669867203079566</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2162042721068186</v>
+        <v>0.2185612949322443</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3287530318844814</v>
+        <v>0.3210373306601657</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>157</v>
@@ -3829,19 +3829,19 @@
         <v>162023</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>143351</v>
+        <v>142457</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>182379</v>
+        <v>178979</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4576977198601681</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4049522131518194</v>
+        <v>0.4024247879603816</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5152001079471074</v>
+        <v>0.5055972306407539</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>229</v>
@@ -3850,19 +3850,19 @@
         <v>244732</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>221028</v>
+        <v>220815</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>269721</v>
+        <v>270264</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.368693172811978</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.332982369898857</v>
+        <v>0.3326621031795246</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4063397718183105</v>
+        <v>0.4071580652630387</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>227077</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207943</v>
+        <v>210333</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>242809</v>
+        <v>242079</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7330132796920433</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6712469681155188</v>
+        <v>0.6789626693398343</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7837957278931814</v>
+        <v>0.7814387050677557</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>187</v>
@@ -3900,19 +3900,19 @@
         <v>191973</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>171617</v>
+        <v>175017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>210645</v>
+        <v>211539</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5423022801398319</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4847998920528928</v>
+        <v>0.4944027693592462</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5950477868481805</v>
+        <v>0.5975752120396184</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>397</v>
@@ -3921,19 +3921,19 @@
         <v>419050</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>394061</v>
+        <v>393518</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>442754</v>
+        <v>442967</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.631306827188022</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5936602281816893</v>
+        <v>0.5928419347369615</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6670176301011429</v>
+        <v>0.6673378968204755</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>77900</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61751</v>
+        <v>63776</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>92014</v>
+        <v>94607</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.312806468540185</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2479606687355205</v>
+        <v>0.2560913169147232</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3694819765042888</v>
+        <v>0.3798947648176472</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>187</v>
@@ -4046,19 +4046,19 @@
         <v>205879</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>186784</v>
+        <v>186114</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>226122</v>
+        <v>224748</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5307036167739265</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4814819062343924</v>
+        <v>0.4797555708238873</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5828845151847407</v>
+        <v>0.5793431538902225</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>257</v>
@@ -4067,19 +4067,19 @@
         <v>283779</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>257982</v>
+        <v>257864</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>308693</v>
+        <v>310511</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4455126669608495</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.405013108967423</v>
+        <v>0.4048285217363806</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4846250438003952</v>
+        <v>0.4874791235725659</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>171136</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>157022</v>
+        <v>154429</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>187285</v>
+        <v>185260</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6871935314598151</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6305180234957113</v>
+        <v>0.6201052351823527</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7520393312644795</v>
+        <v>0.7439086830852769</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>162</v>
@@ -4117,19 +4117,19 @@
         <v>182057</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>161814</v>
+        <v>163188</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>201152</v>
+        <v>201822</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4692963832260735</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4171154848152594</v>
+        <v>0.4206568461097774</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5185180937656078</v>
+        <v>0.5202444291761129</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>313</v>
@@ -4138,19 +4138,19 @@
         <v>353193</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>328279</v>
+        <v>326461</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>378990</v>
+        <v>379108</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5544873330391505</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5153749561996047</v>
+        <v>0.5125208764274342</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5949868910325771</v>
+        <v>0.5951714782636194</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>611383</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>563982</v>
+        <v>564034</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>658393</v>
+        <v>657111</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1787052141991832</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1648501457766606</v>
+        <v>0.1648653392454351</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1924461625630186</v>
+        <v>0.1920714338510955</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1099</v>
@@ -4263,19 +4263,19 @@
         <v>1188971</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1128510</v>
+        <v>1135421</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1242133</v>
+        <v>1253783</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3348275888393799</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3178010260793847</v>
+        <v>0.319747394178202</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3497987006425895</v>
+        <v>0.3530793757372668</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1667</v>
@@ -4284,19 +4284,19 @@
         <v>1800354</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1728664</v>
+        <v>1726844</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1880553</v>
+        <v>1873957</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2582198294252957</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.24793757151704</v>
+        <v>0.2476765727189154</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2697226592244747</v>
+        <v>0.2687765903775313</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2809796</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2762786</v>
+        <v>2764068</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2857197</v>
+        <v>2857145</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8212947858008168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8075538374369812</v>
+        <v>0.8079285661489044</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8351498542233392</v>
+        <v>0.8351346607545649</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2192</v>
@@ -4334,19 +4334,19 @@
         <v>2362024</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2308862</v>
+        <v>2297212</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2422485</v>
+        <v>2415574</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6651724111606201</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6502012993574106</v>
+        <v>0.6469206242627329</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6821989739206152</v>
+        <v>0.680252605821798</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4827</v>
@@ -4355,19 +4355,19 @@
         <v>5171820</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5091621</v>
+        <v>5098217</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5243510</v>
+        <v>5245330</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7417801705747044</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7302773407755255</v>
+        <v>0.7312234096224688</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7520624284829599</v>
+        <v>0.7523234272810848</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>49669</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37651</v>
+        <v>36400</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64920</v>
+        <v>65018</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1184110938162638</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0897608194419055</v>
+        <v>0.0867779251596036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1547691289046852</v>
+        <v>0.1550023935822044</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -4723,19 +4723,19 @@
         <v>68631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54908</v>
+        <v>54391</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83425</v>
+        <v>83385</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.173417554529277</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1387427996783988</v>
+        <v>0.1374357831920213</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2107985496524411</v>
+        <v>0.2106979004047853</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -4744,19 +4744,19 @@
         <v>118300</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97589</v>
+        <v>98157</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139141</v>
+        <v>138038</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1451144811103175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.119708627614816</v>
+        <v>0.1204057656205348</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1706790674653408</v>
+        <v>0.16932669541073</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>369794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>354543</v>
+        <v>354445</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>381812</v>
+        <v>383063</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8815889061837362</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8452308710953141</v>
+        <v>0.8449976064177961</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9102391805580944</v>
+        <v>0.9132220748403965</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>333</v>
@@ -4794,19 +4794,19 @@
         <v>327124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>312330</v>
+        <v>312370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>340847</v>
+        <v>341364</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.826582445470723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.789201450347558</v>
+        <v>0.7893020995952152</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8612572003216011</v>
+        <v>0.862564216807979</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>682</v>
@@ -4815,19 +4815,19 @@
         <v>696918</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>676077</v>
+        <v>677180</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>717629</v>
+        <v>717061</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8548855188896824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8293209325346591</v>
+        <v>0.83067330458927</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.880291372385184</v>
+        <v>0.8795942343794652</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>98400</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81534</v>
+        <v>81517</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118548</v>
+        <v>117886</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1666388837008288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1380779064481721</v>
+        <v>0.1380481884347148</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2007600990669043</v>
+        <v>0.1996392810801527</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -4940,19 +4940,19 @@
         <v>131998</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>113924</v>
+        <v>112142</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151588</v>
+        <v>151026</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2342278771044622</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2021560294753803</v>
+        <v>0.1989946134497302</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.268990512306365</v>
+        <v>0.2679930797255892</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>227</v>
@@ -4961,19 +4961,19 @@
         <v>230397</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>204236</v>
+        <v>203768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>258784</v>
+        <v>256020</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1996441106531559</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1769750893040274</v>
+        <v>0.1765690969688037</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2242414585444743</v>
+        <v>0.2218465897153097</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>492096</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>471948</v>
+        <v>472610</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>508962</v>
+        <v>508979</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8333611162991712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7992399009330956</v>
+        <v>0.8003607189198473</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8619220935518275</v>
+        <v>0.8619518115652853</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -5011,19 +5011,19 @@
         <v>431546</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>411956</v>
+        <v>412518</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>449620</v>
+        <v>451402</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7657721228955378</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7310094876936349</v>
+        <v>0.7320069202744108</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7978439705246197</v>
+        <v>0.8010053865502696</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>919</v>
@@ -5032,19 +5032,19 @@
         <v>923643</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>895256</v>
+        <v>898020</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>949804</v>
+        <v>950272</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8003558893468441</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7757585414555257</v>
+        <v>0.7781534102846905</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8230249106959725</v>
+        <v>0.8234309030311964</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>115875</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95511</v>
+        <v>95496</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134783</v>
+        <v>136000</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1731808351240709</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1427460301234747</v>
+        <v>0.1427241475123749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2014406009022455</v>
+        <v>0.2032584351501875</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>158</v>
@@ -5157,19 +5157,19 @@
         <v>157370</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>136139</v>
+        <v>136828</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179877</v>
+        <v>180231</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2379393612437196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2058390320641035</v>
+        <v>0.2068808045123413</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2719690303836361</v>
+        <v>0.272504377224581</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>267</v>
@@ -5178,19 +5178,19 @@
         <v>273245</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>245084</v>
+        <v>240441</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>303772</v>
+        <v>301291</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2053724539721933</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1842066826634748</v>
+        <v>0.1807169069517642</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2283172154795269</v>
+        <v>0.2264526583155034</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>553222</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>534314</v>
+        <v>533097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>573586</v>
+        <v>573601</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8268191648759291</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7985593990977545</v>
+        <v>0.7967415648498121</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8572539698765252</v>
+        <v>0.8572758524876247</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>507</v>
@@ -5228,19 +5228,19 @@
         <v>504016</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>481509</v>
+        <v>481155</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>525247</v>
+        <v>524558</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7620606387562804</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7280309696163638</v>
+        <v>0.7274956227754177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7941609679358953</v>
+        <v>0.7931191954876577</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1036</v>
@@ -5249,19 +5249,19 @@
         <v>1057238</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1026711</v>
+        <v>1029192</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1085399</v>
+        <v>1090042</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7946275460278066</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.771682784520473</v>
+        <v>0.7735473416844967</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8157933173365252</v>
+        <v>0.8192830930482358</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>125197</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104253</v>
+        <v>104466</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>149296</v>
+        <v>147169</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1937885285820828</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1613696759518523</v>
+        <v>0.1616995506352676</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2310913335227661</v>
+        <v>0.2277982401043234</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>176</v>
@@ -5374,19 +5374,19 @@
         <v>189398</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>165250</v>
+        <v>167755</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>212156</v>
+        <v>215622</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2917958572818254</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2545920251752967</v>
+        <v>0.2584516921831903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3268578559824558</v>
+        <v>0.3321982947811098</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>289</v>
@@ -5395,19 +5395,19 @@
         <v>314595</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>283326</v>
+        <v>286727</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>348804</v>
+        <v>350117</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2429067876405567</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2187630584148682</v>
+        <v>0.2213897635942671</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2693205931943605</v>
+        <v>0.270334822027794</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>520851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496752</v>
+        <v>498879</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>541795</v>
+        <v>541582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8062114714179172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7689086664772339</v>
+        <v>0.7722017598956765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8386303240481475</v>
+        <v>0.8383004493647325</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>426</v>
@@ -5445,19 +5445,19 @@
         <v>459679</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>436921</v>
+        <v>433455</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>483827</v>
+        <v>481322</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7082041427181746</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6731421440175442</v>
+        <v>0.6678017052188903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7454079748247033</v>
+        <v>0.7415483078168097</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>895</v>
@@ -5466,19 +5466,19 @@
         <v>980530</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>946321</v>
+        <v>945008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1011799</v>
+        <v>1008398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7570932123594433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7306794068056397</v>
+        <v>0.729665177972206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7812369415851319</v>
+        <v>0.7786102364057329</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>108503</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90651</v>
+        <v>90528</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>127472</v>
+        <v>129862</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2270333461221669</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1896781429981947</v>
+        <v>0.1894208029125043</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2667240784664977</v>
+        <v>0.2717237566625748</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -5591,19 +5591,19 @@
         <v>195756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>173405</v>
+        <v>173791</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217565</v>
+        <v>217665</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3939952161006626</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3490097971858908</v>
+        <v>0.3497865080766508</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4378888119280185</v>
+        <v>0.4380899040722924</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>269</v>
@@ -5612,19 +5612,19 @@
         <v>304259</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>276454</v>
+        <v>274447</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>335374</v>
+        <v>335008</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3121355688897915</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2836106637105326</v>
+        <v>0.2815515922315402</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3440553939855395</v>
+        <v>0.3436801867461791</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>369415</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>350446</v>
+        <v>348056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>387267</v>
+        <v>387390</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.772966653877833</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7332759215335024</v>
+        <v>0.7282762433374252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8103218570018055</v>
+        <v>0.8105791970874956</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>261</v>
@@ -5662,19 +5662,19 @@
         <v>301093</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>279284</v>
+        <v>279184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>323444</v>
+        <v>323058</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6060047838993374</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5621111880719815</v>
+        <v>0.5619100959277075</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6509902028141092</v>
+        <v>0.6502134919233492</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>588</v>
@@ -5683,19 +5683,19 @@
         <v>670508</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>639393</v>
+        <v>639759</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>698313</v>
+        <v>700320</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6878644311102086</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6559446060144607</v>
+        <v>0.6563198132538209</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7163893362894675</v>
+        <v>0.7184484077684598</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>59739</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46600</v>
+        <v>46021</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75928</v>
+        <v>75407</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1786832004484628</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1393826039302306</v>
+        <v>0.1376507680593999</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2271051478163332</v>
+        <v>0.2255479866727517</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>154</v>
@@ -5808,19 +5808,19 @@
         <v>162679</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>143041</v>
+        <v>142157</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>183316</v>
+        <v>181554</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4306394879494091</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3786548394551895</v>
+        <v>0.3763135816155778</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4852683709119398</v>
+        <v>0.4806038961539689</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>211</v>
@@ -5829,19 +5829,19 @@
         <v>222418</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>196813</v>
+        <v>197844</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>246750</v>
+        <v>248157</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3123450187448334</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2763869648788693</v>
+        <v>0.2778343519376944</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3465142298436117</v>
+        <v>0.348489446779174</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>274591</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258402</v>
+        <v>258923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287730</v>
+        <v>288309</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8213167995515372</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7728948521836669</v>
+        <v>0.7744520133272483</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8606173960697694</v>
+        <v>0.8623492319406001</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>200</v>
@@ -5879,19 +5879,19 @@
         <v>215083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194446</v>
+        <v>196208</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>234721</v>
+        <v>235605</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5693605120505909</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5147316290880602</v>
+        <v>0.5193961038460312</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6213451605448107</v>
+        <v>0.6236864183844222</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>468</v>
@@ -5900,19 +5900,19 @@
         <v>489674</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>465342</v>
+        <v>463935</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>515279</v>
+        <v>514248</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6876549812551666</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6534857701563881</v>
+        <v>0.6515105532208258</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7236130351211306</v>
+        <v>0.7221656480623057</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>83063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69282</v>
+        <v>68632</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97868</v>
+        <v>96574</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3232040002575685</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2695806908261928</v>
+        <v>0.2670522005868729</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3808126682500462</v>
+        <v>0.3757759032184289</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>149</v>
@@ -6025,19 +6025,19 @@
         <v>196525</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>173714</v>
+        <v>174394</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>218241</v>
+        <v>221051</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4911040394820589</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4341026787717906</v>
+        <v>0.4358002092839944</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.545373044636796</v>
+        <v>0.5523932606285005</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>247</v>
@@ -6046,19 +6046,19 @@
         <v>279587</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>254064</v>
+        <v>254790</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>306473</v>
+        <v>307182</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4254434472324698</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3866056514602995</v>
+        <v>0.3877104010576001</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4663553484715115</v>
+        <v>0.4674342296527101</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>173935</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>159130</v>
+        <v>160424</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>187716</v>
+        <v>188366</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6767959997424315</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6191873317499541</v>
+        <v>0.6242240967815712</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7304193091738076</v>
+        <v>0.7329477994131269</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>152</v>
@@ -6096,19 +6096,19 @@
         <v>203644</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>181928</v>
+        <v>179118</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>226455</v>
+        <v>225775</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5088959605179411</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.454626955363204</v>
+        <v>0.4476067393714995</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5658973212282093</v>
+        <v>0.5641997907160056</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>356</v>
@@ -6117,19 +6117,19 @@
         <v>377580</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>350694</v>
+        <v>349985</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>403103</v>
+        <v>402377</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5745565527675301</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5336446515284887</v>
+        <v>0.5325657703472901</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.613394348539701</v>
+        <v>0.6122895989424001</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>640445</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>594649</v>
+        <v>593917</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>687321</v>
+        <v>689624</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1886798338426785</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1751879008859406</v>
+        <v>0.1749721125682354</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.20248983404212</v>
+        <v>0.2031682535939748</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1013</v>
@@ -6242,19 +6242,19 @@
         <v>1102356</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1042295</v>
+        <v>1049412</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1156622</v>
+        <v>1162413</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3110010539459085</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2940562672165521</v>
+        <v>0.2960643062535912</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3263107521241219</v>
+        <v>0.3279445828192219</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1625</v>
@@ -6263,19 +6263,19 @@
         <v>1742802</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1669429</v>
+        <v>1671864</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1814773</v>
+        <v>1814049</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2511642594031444</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.240590137689512</v>
+        <v>0.240941095783637</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2615364876246478</v>
+        <v>0.2614320272823652</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2753905</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2707029</v>
+        <v>2704726</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2799701</v>
+        <v>2800433</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8113201661573215</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7975101659578799</v>
+        <v>0.7968317464060253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8248120991140595</v>
+        <v>0.8250278874317646</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2325</v>
@@ -6313,19 +6313,19 @@
         <v>2442186</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2387920</v>
+        <v>2382129</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2502247</v>
+        <v>2495130</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6889989460540914</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6736892478758777</v>
+        <v>0.6720554171807781</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7059437327834478</v>
+        <v>0.7039356937464087</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4944</v>
@@ -6334,19 +6334,19 @@
         <v>5196090</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5124119</v>
+        <v>5124843</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5269463</v>
+        <v>5267028</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7488357405968556</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7384635123753522</v>
+        <v>0.7385679727176347</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7594098623104881</v>
+        <v>0.7590589042163632</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>47676</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30323</v>
+        <v>30793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73706</v>
+        <v>72951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1169115788941337</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07435917486107002</v>
+        <v>0.07551251224730167</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1807438482897029</v>
+        <v>0.1788932949565115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -6702,19 +6702,19 @@
         <v>74848</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54812</v>
+        <v>54413</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96653</v>
+        <v>96223</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2064691992197845</v>
+        <v>0.2064691992197844</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1512012719497055</v>
+        <v>0.1501009822539506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2666206872637829</v>
+        <v>0.2654344551767092</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -6723,19 +6723,19 @@
         <v>122523</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93820</v>
+        <v>96086</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>155723</v>
+        <v>154250</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.159058141920177</v>
+        <v>0.1590581419201769</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1217960550615452</v>
+        <v>0.1247372328195044</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2021576768631159</v>
+        <v>0.2002452307830493</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>360117</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>334087</v>
+        <v>334842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>377470</v>
+        <v>377000</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8830884211058665</v>
+        <v>0.8830884211058663</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8192561517102973</v>
+        <v>0.8211067050434887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.92564082513893</v>
+        <v>0.9244874877526983</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>166</v>
@@ -6773,19 +6773,19 @@
         <v>287664</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265859</v>
+        <v>266289</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307700</v>
+        <v>308099</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7935308007802155</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7333793127362174</v>
+        <v>0.7345655448232913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8487987280502948</v>
+        <v>0.8498990177460493</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>319</v>
@@ -6794,19 +6794,19 @@
         <v>647782</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>614582</v>
+        <v>616055</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>676485</v>
+        <v>674219</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8409418580798231</v>
+        <v>0.840941858079823</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7978423231368842</v>
+        <v>0.7997547692169508</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8782039449384549</v>
+        <v>0.8752627671804957</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>88636</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67738</v>
+        <v>65699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113336</v>
+        <v>111442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1858622276164236</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1420411424266833</v>
+        <v>0.1377649228887223</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2376570675139341</v>
+        <v>0.2336850473995062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>94</v>
@@ -6919,19 +6919,19 @@
         <v>103976</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>83740</v>
+        <v>85167</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124205</v>
+        <v>123285</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2075026024039993</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1671184658923235</v>
+        <v>0.1699655058777396</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2478733095135147</v>
+        <v>0.2460367732718249</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -6940,19 +6940,19 @@
         <v>192612</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>164347</v>
+        <v>164849</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>224437</v>
+        <v>225313</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1969500817086319</v>
+        <v>0.196950081708632</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1680485379757538</v>
+        <v>0.1685623538475767</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2294918019330948</v>
+        <v>0.2303879511820912</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>388254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>363554</v>
+        <v>365448</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>409152</v>
+        <v>411191</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8141377723835764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7623429324860658</v>
+        <v>0.7663149526004936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8579588575733167</v>
+        <v>0.8622350771112776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>366</v>
@@ -6990,19 +6990,19 @@
         <v>397107</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>376878</v>
+        <v>377798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>417343</v>
+        <v>415916</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7924973975960006</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7521266904864851</v>
+        <v>0.7539632267281752</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8328815341076763</v>
+        <v>0.8300344941222604</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>617</v>
@@ -7011,19 +7011,19 @@
         <v>785361</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>753536</v>
+        <v>752660</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>813626</v>
+        <v>813124</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.803049918291368</v>
+        <v>0.8030499182913681</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7705081980669053</v>
+        <v>0.7696120488179091</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8319514620242462</v>
+        <v>0.8314376461524239</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>111685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93443</v>
+        <v>93207</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136436</v>
+        <v>132744</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1798948052333849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1505116791187949</v>
+        <v>0.1501319145156282</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2197610838647397</v>
+        <v>0.2138142621856997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>261</v>
@@ -7136,19 +7136,19 @@
         <v>189333</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>172168</v>
+        <v>169838</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>211784</v>
+        <v>208330</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.304326522011965</v>
+        <v>0.3043265220119651</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2767349708360581</v>
+        <v>0.2729903509066078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3404123606818732</v>
+        <v>0.3348601258416932</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>361</v>
@@ -7157,19 +7157,19 @@
         <v>301019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>274527</v>
+        <v>272949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>330647</v>
+        <v>328994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2421758553103392</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2208629581936591</v>
+        <v>0.2195932520893964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2660125858880418</v>
+        <v>0.2646826880587939</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>509152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>484401</v>
+        <v>488093</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>527394</v>
+        <v>527630</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8201051947666151</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7802389161352601</v>
+        <v>0.7861857378143006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8494883208812051</v>
+        <v>0.8498680854843719</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>585</v>
@@ -7207,19 +7207,19 @@
         <v>432806</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>410355</v>
+        <v>413809</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>449971</v>
+        <v>452301</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6956734779880349</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6595876393181266</v>
+        <v>0.6651398741583069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7232650291639418</v>
+        <v>0.7270096490933922</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1031</v>
@@ -7228,19 +7228,19 @@
         <v>941957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>912329</v>
+        <v>913982</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>968449</v>
+        <v>970027</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7578241446896608</v>
+        <v>0.7578241446896609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.733987414111958</v>
+        <v>0.7353173119412061</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7791370418063409</v>
+        <v>0.7804067479106037</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>175859</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>151766</v>
+        <v>152399</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>201505</v>
+        <v>200317</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2510058063281145</v>
+        <v>0.2510058063281144</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2166181185807533</v>
+        <v>0.2175204896817535</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2876101842201031</v>
+        <v>0.2859147713435505</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>432</v>
@@ -7353,19 +7353,19 @@
         <v>277043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>256706</v>
+        <v>256241</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>297392</v>
+        <v>297465</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.375964187507754</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3483659766714062</v>
+        <v>0.3477345074141003</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4035795654748452</v>
+        <v>0.4036789247414913</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>599</v>
@@ -7374,19 +7374,19 @@
         <v>452902</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>419755</v>
+        <v>420730</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>483510</v>
+        <v>484519</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.31506139042783</v>
+        <v>0.3150613904278301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2920026521732683</v>
+        <v>0.2926812005184636</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3363539227780162</v>
+        <v>0.3370559261142586</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>524758</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>499112</v>
+        <v>500300</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>548851</v>
+        <v>548218</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7489941936718857</v>
+        <v>0.7489941936718856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7123898157798968</v>
+        <v>0.7140852286564495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7833818814192466</v>
+        <v>0.7824795103182466</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>709</v>
@@ -7424,19 +7424,19 @@
         <v>459843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>439494</v>
+        <v>439421</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>480180</v>
+        <v>480645</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.624035812492246</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5964204345251549</v>
+        <v>0.5963210752585087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6516340233285939</v>
+        <v>0.6522654925858996</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1207</v>
@@ -7445,19 +7445,19 @@
         <v>984602</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>953994</v>
+        <v>952985</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1017749</v>
+        <v>1016774</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6849386095721699</v>
+        <v>0.68493860957217</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6636460772219837</v>
+        <v>0.6629440738857414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7079973478267317</v>
+        <v>0.7073187994815363</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>182384</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160615</v>
+        <v>162889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203372</v>
+        <v>203731</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2993115235474671</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2635859753347974</v>
+        <v>0.2673171798091902</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.333754147016161</v>
+        <v>0.3343432235060676</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>445</v>
@@ -7570,19 +7570,19 @@
         <v>268976</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>250285</v>
+        <v>250454</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>288431</v>
+        <v>287721</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4427963788932296</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.412026841171989</v>
+        <v>0.4123056658995914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4748241183427216</v>
+        <v>0.4736557107292512</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>645</v>
@@ -7591,19 +7591,19 @@
         <v>451360</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>420631</v>
+        <v>422899</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>479478</v>
+        <v>480671</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3709420066245185</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3456879572739588</v>
+        <v>0.347551993278711</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3940502323152576</v>
+        <v>0.3950306086143119</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>426962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>405974</v>
+        <v>405615</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>448731</v>
+        <v>446457</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7006884764525328</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6662458529838391</v>
+        <v>0.6656567764939325</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7364140246652027</v>
+        <v>0.73268282019081</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>555</v>
@@ -7641,19 +7641,19 @@
         <v>338472</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>319017</v>
+        <v>319727</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>357163</v>
+        <v>356994</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5572036211067702</v>
+        <v>0.5572036211067701</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5251758816572778</v>
+        <v>0.5263442892707488</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5879731588280109</v>
+        <v>0.5876943341004084</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1018</v>
@@ -7662,19 +7662,19 @@
         <v>765434</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>737316</v>
+        <v>736123</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>796163</v>
+        <v>793895</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6290579933754814</v>
+        <v>0.6290579933754813</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6059497676847427</v>
+        <v>0.6049693913856882</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6543120427260415</v>
+        <v>0.6524480067212889</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>109883</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94614</v>
+        <v>95135</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>126206</v>
+        <v>124802</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.269930890302704</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2324209949036828</v>
+        <v>0.2337016494643463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3100280707551218</v>
+        <v>0.3065787531774437</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>437</v>
@@ -7787,19 +7787,19 @@
         <v>231270</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>216936</v>
+        <v>215325</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>247390</v>
+        <v>245631</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5266125608546319</v>
+        <v>0.5266125608546317</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4939726628353275</v>
+        <v>0.4903054764272867</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5633187081667391</v>
+        <v>0.5593131879685843</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>594</v>
@@ -7808,19 +7808,19 @@
         <v>341154</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>319264</v>
+        <v>320153</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>363752</v>
+        <v>363834</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4031379267383077</v>
+        <v>0.4031379267383078</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3772713471091256</v>
+        <v>0.378321669555303</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4298424920703768</v>
+        <v>0.4299387345985277</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>297197</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280874</v>
+        <v>282278</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>312466</v>
+        <v>311945</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.730069109697296</v>
+        <v>0.7300691096972961</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6899719292448782</v>
+        <v>0.6934212468225562</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7675790050963168</v>
+        <v>0.7662983505356536</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>390</v>
@@ -7858,19 +7858,19 @@
         <v>207896</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>191776</v>
+        <v>193535</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>222230</v>
+        <v>223841</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4733874391453682</v>
+        <v>0.4733874391453681</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4366812918332607</v>
+        <v>0.4406868120314155</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5060273371646726</v>
+        <v>0.5096945235727133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>803</v>
@@ -7879,19 +7879,19 @@
         <v>505092</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>482494</v>
+        <v>482412</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>526982</v>
+        <v>526093</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5968620732616922</v>
+        <v>0.5968620732616923</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5701575079296232</v>
+        <v>0.570061265401472</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6227286528908744</v>
+        <v>0.6216783304446969</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>123203</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109474</v>
+        <v>108850</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137201</v>
+        <v>137428</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3971768416243389</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3529151298299891</v>
+        <v>0.3509050745258634</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4423006231419427</v>
+        <v>0.4430345325254568</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>602</v>
@@ -8004,19 +8004,19 @@
         <v>309062</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>293750</v>
+        <v>293625</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>323944</v>
+        <v>324008</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6660738489256652</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.633073502100339</v>
+        <v>0.6328040092022338</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6981468877374437</v>
+        <v>0.6982839139545757</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>792</v>
@@ -8025,19 +8025,19 @@
         <v>432266</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>407864</v>
+        <v>411494</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>451658</v>
+        <v>455393</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5583355963605715</v>
+        <v>0.5583355963605714</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5268173508827312</v>
+        <v>0.5315055275824956</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5833831486312768</v>
+        <v>0.5882080869570027</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>186995</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>172997</v>
+        <v>172770</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>200724</v>
+        <v>201348</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.602823158375661</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5576993768580576</v>
+        <v>0.5569654674745433</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6470848701700109</v>
+        <v>0.6490949254741372</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>278</v>
@@ -8075,19 +8075,19 @@
         <v>154944</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>140062</v>
+        <v>139998</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>170256</v>
+        <v>170381</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3339261510743348</v>
+        <v>0.3339261510743347</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.301853112262556</v>
+        <v>0.3017160860454244</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3669264978996609</v>
+        <v>0.3671959907977662</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>546</v>
@@ -8096,19 +8096,19 @@
         <v>341938</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>322546</v>
+        <v>318811</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>366340</v>
+        <v>362710</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4416644036394285</v>
+        <v>0.4416644036394284</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4166168513687232</v>
+        <v>0.4117919130429974</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4731826491172693</v>
+        <v>0.4684944724175046</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>839327</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>791251</v>
+        <v>786216</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>897094</v>
+        <v>901237</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2375838888482591</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2239752298481921</v>
+        <v>0.2225498395139767</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2539354557456325</v>
+        <v>0.2551084414640231</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2312</v>
@@ -8221,19 +8221,19 @@
         <v>1454508</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1404385</v>
+        <v>1400195</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1506251</v>
+        <v>1507723</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3896100984864916</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3761838882658177</v>
+        <v>0.3750614345574528</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4034701324145561</v>
+        <v>0.4038643515631061</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3196</v>
@@ -8242,19 +8242,19 @@
         <v>2293836</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2222807</v>
+        <v>2222154</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2369082</v>
+        <v>2374879</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3156942961967588</v>
+        <v>0.3156942961967587</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3059187822817134</v>
+        <v>0.3058289338494142</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.326050299827259</v>
+        <v>0.32684805892677</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2693435</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2635668</v>
+        <v>2631525</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2741511</v>
+        <v>2746546</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.762416111151741</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7460645442543676</v>
+        <v>0.744891558535977</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.776024770151808</v>
+        <v>0.7774501604860234</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3049</v>
@@ -8292,19 +8292,19 @@
         <v>2278733</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2226990</v>
+        <v>2225518</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2328856</v>
+        <v>2333046</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6103899015135084</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5965298675854438</v>
+        <v>0.5961356484368938</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6238161117341823</v>
+        <v>0.6249385654425473</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5541</v>
@@ -8313,19 +8313,19 @@
         <v>4972167</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4896921</v>
+        <v>4891124</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5043196</v>
+        <v>5043849</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6843057038032413</v>
+        <v>0.6843057038032412</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.673949700172741</v>
+        <v>0.6731519410732298</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6940812177182866</v>
+        <v>0.6941710661505857</v>
       </c>
     </row>
     <row r="27">
